--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392730.6875094582</v>
+        <v>-395219.4265389743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>218.5429639224982</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>20.02920118944638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>313.552079706042</v>
+        <v>324.3939070479962</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>208.7942470064248</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.2292170629843</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.6553095852827</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>38.29186794163153</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>2.589116281977208</v>
       </c>
       <c r="F7" t="n">
-        <v>51.93357651373471</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>307.5629862906309</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>165.1217134651675</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>142.8765874214714</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.3434154283418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>19.17715139986161</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>117.6449484365336</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>105.56838945123</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9359580870419</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.8420267255999</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>80.11763046889845</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.382486881535</v>
+        <v>1857.374891190373</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.382486881535</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1252.382486881535</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.356072452662</v>
+        <v>2634.114063230307</v>
       </c>
       <c r="W2" t="n">
-        <v>2402.587417182548</v>
+        <v>2634.114063230307</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.121658921468</v>
+        <v>2634.114063230307</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.982326945656</v>
+        <v>2243.974731254495</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1203.635074063161</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>817.8468214649163</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792696</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2510.786507531616</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.647175555804</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4635,37 +4635,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.1533772316429</v>
+        <v>653.2087215510559</v>
       </c>
       <c r="C7" t="n">
-        <v>563.2171943037361</v>
+        <v>484.272538623149</v>
       </c>
       <c r="D7" t="n">
-        <v>413.1005548914003</v>
+        <v>334.1558992108132</v>
       </c>
       <c r="E7" t="n">
-        <v>265.1874613090072</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205413</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.594421205413</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y7" t="n">
-        <v>913.8018420618827</v>
+        <v>653.2087215510559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.748203495404</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.748203495404</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>716.7622987057969</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>526.6580321322142</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>357.7218492043073</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>357.7218492043073</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>357.7218492043073</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>210.831901706397</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1157.088627004001</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>929.0990761059841</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>708.3064969624539</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
         <v>382.4184417036842</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>336.9860575577204</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
         <v>484.8112968429803</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6613,10 +6613,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>331.5467402424579</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>164.3506409573378</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>164.3506409573378</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,16 +7822,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>361.9011688828154</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.35835142213878</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>77.41759119918805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.09054721822741</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>28.78901421003562</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>146.569253872598</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>18.89602209489536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>11.43719818829325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-3.501643547353501e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="H2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="I2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26350,7 +26350,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524992</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33767.20391572752</v>
+        <v>33767.20391572772</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26442,10 +26442,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26454,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.72340992395</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218902.964269672</v>
+        <v>-1219158.833509082</v>
       </c>
       <c r="C6" t="n">
-        <v>87246.7799729243</v>
+        <v>87246.7799729242</v>
       </c>
       <c r="D6" t="n">
-        <v>87246.77997292456</v>
+        <v>87246.7799729242</v>
       </c>
       <c r="E6" t="n">
-        <v>-157030.5458865904</v>
+        <v>-157065.2838120265</v>
       </c>
       <c r="F6" t="n">
-        <v>168381.9159207645</v>
+        <v>168347.1779953289</v>
       </c>
       <c r="G6" t="n">
-        <v>168381.9159207645</v>
+        <v>168347.177995329</v>
       </c>
       <c r="H6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="I6" t="n">
-        <v>168381.9159207647</v>
+        <v>168347.1779953289</v>
       </c>
       <c r="J6" t="n">
-        <v>-49149.28647651282</v>
+        <v>-49184.02440194851</v>
       </c>
       <c r="K6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="L6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="M6" t="n">
-        <v>83326.88798525276</v>
+        <v>83292.15005981701</v>
       </c>
       <c r="N6" t="n">
-        <v>168381.9159207646</v>
+        <v>168347.1779953288</v>
       </c>
       <c r="O6" t="n">
         <v>143785.0621950281</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.7299278485094</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14.20017876409293</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.3554362891105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.0785320781979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>368.5841778000799</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>143.844846364592</v>
       </c>
       <c r="F7" t="n">
-        <v>93.48747150919654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>103.3587393628226</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>162.6305450049674</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>23.14922083755684</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33670,13 +33670,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
